--- a/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
+++ b/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>source-is-narrower-than-target</t>
   </si>
   <si>
-    <t>valid</t>
+    <t>100000072099</t>
   </si>
   <si>
     <t>registriert</t>
@@ -141,19 +141,19 @@
     <t>equivalent</t>
   </si>
   <si>
-    <t>rejected</t>
+    <t>220000000067</t>
   </si>
   <si>
     <t>ruhend</t>
   </si>
   <si>
-    <t>suspended</t>
+    <t>100000072122</t>
   </si>
   <si>
     <t>aufgehoben</t>
   </si>
   <si>
-    <t>surrendered</t>
+    <t>200000010409</t>
   </si>
 </sst>
 </file>

--- a/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
+++ b/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
+++ b/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
+++ b/r5-AGES-MedicinalProduct-main/at-medprod-cm-authorizationState.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
